--- a/data/trans_orig/Q5418_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5418_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3075608-C3FB-4264-816A-7D7C752AA522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FBB0D66-6B03-4B3C-B83A-867AC96207A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2858BD05-AC30-476C-A423-8E432506B2EA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B1F22551-2261-4500-BB65-690AE441365D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="175">
   <si>
     <t>Población según si es capaz de lavarse la ropa en 2023 (Tasa respuesta: 31,2%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>9,17%</t>
   </si>
   <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
   </si>
   <si>
     <t>12,8%</t>
   </si>
   <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
   </si>
   <si>
     <t>11,37%</t>
   </si>
   <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
   </si>
   <si>
     <t>Con alguna ayuda</t>
@@ -104,28 +104,28 @@
     <t>23,63%</t>
   </si>
   <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
   </si>
   <si>
     <t>17,34%</t>
   </si>
   <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
   </si>
   <si>
     <t>19,83%</t>
   </si>
   <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -134,28 +134,28 @@
     <t>67,2%</t>
   </si>
   <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
   </si>
   <si>
     <t>69,85%</t>
   </si>
   <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
   </si>
   <si>
     <t>68,8%</t>
   </si>
   <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,79 +167,79 @@
     <t>14,65%</t>
   </si>
   <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
   </si>
   <si>
     <t>15,08%</t>
   </si>
   <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
   </si>
   <si>
     <t>14,88%</t>
   </si>
   <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
   </si>
   <si>
     <t>9,69%</t>
   </si>
   <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
   </si>
   <si>
     <t>14,18%</t>
   </si>
   <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
   </si>
   <si>
     <t>12,12%</t>
   </si>
   <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
   </si>
   <si>
     <t>75,66%</t>
   </si>
   <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
   </si>
   <si>
     <t>70,74%</t>
   </si>
   <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
   </si>
   <si>
     <t>73,0%</t>
   </si>
   <si>
-    <t>68,63%</t>
+    <t>68,59%</t>
   </si>
   <si>
     <t>76,67%</t>
@@ -251,82 +251,82 @@
     <t>8,43%</t>
   </si>
   <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
   </si>
   <si>
     <t>11,57%</t>
   </si>
   <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
   </si>
   <si>
     <t>10,26%</t>
   </si>
   <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
   </si>
   <si>
     <t>8,54%</t>
   </si>
   <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
   </si>
   <si>
     <t>11,02%</t>
   </si>
   <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
   </si>
   <si>
     <t>9,98%</t>
   </si>
   <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
   </si>
   <si>
     <t>83,03%</t>
   </si>
   <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
   </si>
   <si>
     <t>77,41%</t>
   </si>
   <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
   </si>
   <si>
     <t>79,76%</t>
   </si>
   <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -335,73 +335,70 @@
     <t>4,58%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
   </si>
   <si>
     <t>5,76%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
   </si>
   <si>
     <t>5,36%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
   </si>
   <si>
     <t>3,96%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
   </si>
   <si>
     <t>4,64%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
   </si>
   <si>
     <t>4,41%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
   </si>
   <si>
     <t>91,46%</t>
   </si>
   <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
+    <t>95,39%</t>
   </si>
   <si>
     <t>89,6%</t>
   </si>
   <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
   </si>
   <si>
     <t>90,24%</t>
@@ -410,7 +407,7 @@
     <t>85,67%</t>
   </si>
   <si>
-    <t>95,92%</t>
+    <t>95,55%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -419,160 +416,148 @@
     <t>5,31%</t>
   </si>
   <si>
-    <t>3,35%</t>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
   </si>
   <si>
     <t>8,27%</t>
   </si>
   <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
+    <t>14,47%</t>
   </si>
   <si>
     <t>9,07%</t>
   </si>
   <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
   </si>
   <si>
     <t>88,46%</t>
   </si>
   <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
   </si>
   <si>
     <t>81,56%</t>
   </si>
   <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
   </si>
   <si>
     <t>84,42%</t>
   </si>
   <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
   </si>
   <si>
     <t>7,79%</t>
   </si>
   <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
+    <t>6,37%</t>
   </si>
   <si>
     <t>9,27%</t>
   </si>
   <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
     <t>8,67%</t>
   </si>
   <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
   </si>
   <si>
     <t>7,7%</t>
   </si>
   <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
   </si>
   <si>
     <t>10,02%</t>
   </si>
   <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
+    <t>11,99%</t>
   </si>
   <si>
     <t>9,09%</t>
   </si>
   <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
   </si>
   <si>
     <t>84,51%</t>
   </si>
   <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
   </si>
   <si>
     <t>80,71%</t>
   </si>
   <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
   </si>
   <si>
     <t>82,24%</t>
   </si>
   <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -987,7 +972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1388C3E-7363-4766-9BA4-9CAC26A10F57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963B5916-023A-4573-A7A0-D0267DD99B71}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1834,10 +1819,10 @@
         <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>244</v>
@@ -1846,13 +1831,13 @@
         <v>251880</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>418</v>
@@ -1861,13 +1846,13 @@
         <v>385863</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1923,7 +1908,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1935,13 +1920,13 @@
         <v>11593</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>34</v>
@@ -1950,13 +1935,13 @@
         <v>22731</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>52</v>
@@ -1965,13 +1950,13 @@
         <v>34325</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1986,13 +1971,13 @@
         <v>13589</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>54</v>
@@ -2001,13 +1986,13 @@
         <v>34240</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>74</v>
@@ -2016,13 +2001,13 @@
         <v>47828</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2037,13 +2022,13 @@
         <v>193062</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>435</v>
@@ -2052,13 +2037,13 @@
         <v>251928</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>721</v>
@@ -2067,13 +2052,13 @@
         <v>444990</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2141,13 +2126,13 @@
         <v>53979</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="G24" s="7" t="s">
-        <v>154</v>
+        <v>51</v>
       </c>
       <c r="H24" s="7">
         <v>177</v>
@@ -2156,13 +2141,13 @@
         <v>95050</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="M24" s="7">
         <v>267</v>
@@ -2171,13 +2156,13 @@
         <v>149030</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2192,13 +2177,13 @@
         <v>53370</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H25" s="7">
         <v>191</v>
@@ -2207,13 +2192,13 @@
         <v>102787</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M25" s="7">
         <v>271</v>
@@ -2222,13 +2207,13 @@
         <v>156157</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2243,13 +2228,13 @@
         <v>585877</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H26" s="7">
         <v>1338</v>
@@ -2258,13 +2243,13 @@
         <v>827711</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M26" s="7">
         <v>2190</v>
@@ -2273,13 +2258,13 @@
         <v>1413588</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2335,7 +2320,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5418_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5418_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FBB0D66-6B03-4B3C-B83A-867AC96207A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C2539B6-1C5F-42AC-87B1-CADA2B749375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B1F22551-2261-4500-BB65-690AE441365D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F7995392-BE70-4418-BE88-BCA1EE1483A5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No puede</t>
@@ -161,7 +161,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>14,65%</t>
@@ -245,7 +245,7 @@
     <t>76,67%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>8,43%</t>
@@ -329,7 +329,7 @@
     <t>82,59%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>4,58%</t>
@@ -972,7 +972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963B5916-023A-4573-A7A0-D0267DD99B71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD11C795-94CA-4E7F-A3C7-28514CC32491}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/Q5418_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5418_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C2539B6-1C5F-42AC-87B1-CADA2B749375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C9A130C-A44F-475F-A062-7C5BC7DE818C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F7995392-BE70-4418-BE88-BCA1EE1483A5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{80A11A23-28D5-44F8-8809-C473C940C2D6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="180">
   <si>
     <t>Población según si es capaz de lavarse la ropa en 2023 (Tasa respuesta: 31,2%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>9,17%</t>
   </si>
   <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
   </si>
   <si>
     <t>12,8%</t>
   </si>
   <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
   </si>
   <si>
     <t>11,37%</t>
   </si>
   <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
   </si>
   <si>
     <t>Con alguna ayuda</t>
@@ -104,460 +104,475 @@
     <t>23,63%</t>
   </si>
   <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
   </si>
   <si>
     <t>17,34%</t>
   </si>
   <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
     <t>11,13%</t>
   </si>
   <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
     <t>8,67%</t>
   </si>
   <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
   </si>
   <si>
     <t>7,7%</t>
   </si>
   <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
   </si>
   <si>
     <t>10,02%</t>
   </si>
   <si>
-    <t>11,99%</t>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
   </si>
   <si>
     <t>9,09%</t>
   </si>
   <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
   </si>
   <si>
     <t>84,51%</t>
   </si>
   <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
   </si>
   <si>
     <t>80,71%</t>
   </si>
   <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
   </si>
   <si>
     <t>82,24%</t>
   </si>
   <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -972,7 +987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD11C795-94CA-4E7F-A3C7-28514CC32491}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555DFE18-3A77-497B-B802-FC57DE39139E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1819,10 +1834,10 @@
         <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>244</v>
@@ -1831,13 +1846,13 @@
         <v>251880</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>418</v>
@@ -1846,13 +1861,13 @@
         <v>385863</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1908,7 +1923,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1920,13 +1935,13 @@
         <v>11593</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>34</v>
@@ -1935,13 +1950,13 @@
         <v>22731</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>52</v>
@@ -1950,13 +1965,13 @@
         <v>34325</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1971,13 +1986,13 @@
         <v>13589</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>54</v>
@@ -1986,13 +2001,13 @@
         <v>34240</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>74</v>
@@ -2001,13 +2016,13 @@
         <v>47828</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2022,13 +2037,13 @@
         <v>193062</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>435</v>
@@ -2037,13 +2052,13 @@
         <v>251928</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>721</v>
@@ -2052,13 +2067,13 @@
         <v>444990</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2126,13 +2141,13 @@
         <v>53979</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="H24" s="7">
         <v>177</v>
@@ -2141,13 +2156,13 @@
         <v>95050</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="M24" s="7">
         <v>267</v>
@@ -2156,13 +2171,13 @@
         <v>149030</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2177,13 +2192,13 @@
         <v>53370</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H25" s="7">
         <v>191</v>
@@ -2192,13 +2207,13 @@
         <v>102787</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>271</v>
@@ -2207,13 +2222,13 @@
         <v>156157</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,13 +2243,13 @@
         <v>585877</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>1338</v>
@@ -2243,13 +2258,13 @@
         <v>827711</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M26" s="7">
         <v>2190</v>
@@ -2258,13 +2273,13 @@
         <v>1413588</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2320,7 +2335,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5418_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5418_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C9A130C-A44F-475F-A062-7C5BC7DE818C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F7ABBA3-6DA1-4B81-9279-22CFEE3ED5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{80A11A23-28D5-44F8-8809-C473C940C2D6}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{854E73EF-8315-4658-B538-BCA04F600C42}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="149">
   <si>
     <t>Población según si es capaz de lavarse la ropa en 2023 (Tasa respuesta: 31,2%)</t>
   </si>
@@ -65,514 +65,421 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>No puede</t>
   </si>
   <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>Con alguna ayuda</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
   </si>
   <si>
     <t>6,65%</t>
   </si>
   <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>Con alguna ayuda</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
   </si>
   <si>
     <t>9,69%</t>
   </si>
   <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
   </si>
   <si>
     <t>9,92%</t>
   </si>
   <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -987,8 +894,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555DFE18-3A77-497B-B802-FC57DE39139E}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA208DE0-9C77-4F9B-B9B0-C879C7BA53E7}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1105,10 +1012,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D4" s="7">
-        <v>2720</v>
+        <v>20155</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1120,10 +1027,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I4" s="7">
-        <v>5816</v>
+        <v>26158</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1135,10 +1042,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="N4" s="7">
-        <v>8535</v>
+        <v>46313</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1156,10 +1063,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D5" s="7">
-        <v>7011</v>
+        <v>18196</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1171,10 +1078,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I5" s="7">
-        <v>7878</v>
+        <v>26414</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1186,10 +1093,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="N5" s="7">
-        <v>14888</v>
+        <v>44610</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1207,10 +1114,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>32</v>
+        <v>185</v>
       </c>
       <c r="D6" s="7">
-        <v>19934</v>
+        <v>109732</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1222,10 +1129,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>77</v>
+        <v>313</v>
       </c>
       <c r="I6" s="7">
-        <v>31727</v>
+        <v>126591</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1237,10 +1144,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>109</v>
+        <v>498</v>
       </c>
       <c r="N6" s="7">
-        <v>51661</v>
+        <v>236322</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1258,10 +1165,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>47</v>
+        <v>253</v>
       </c>
       <c r="D7" s="7">
-        <v>29664</v>
+        <v>148083</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1273,10 +1180,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>112</v>
+        <v>446</v>
       </c>
       <c r="I7" s="7">
-        <v>45421</v>
+        <v>179163</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1288,10 +1195,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>159</v>
+        <v>699</v>
       </c>
       <c r="N7" s="7">
-        <v>75085</v>
+        <v>327246</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1311,10 +1218,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8" s="7">
-        <v>18312</v>
+        <v>13807</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -1329,7 +1236,7 @@
         <v>53</v>
       </c>
       <c r="I8" s="7">
-        <v>22197</v>
+        <v>25623</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -1341,10 +1248,10 @@
         <v>47</v>
       </c>
       <c r="M8" s="7">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N8" s="7">
-        <v>40509</v>
+        <v>39431</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1362,49 +1269,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="7">
-        <v>12110</v>
+        <v>13506</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7">
+        <v>50</v>
+      </c>
+      <c r="I9" s="7">
+        <v>23941</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="7">
-        <v>45</v>
-      </c>
-      <c r="I9" s="7">
-        <v>20881</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>70</v>
+      </c>
+      <c r="N9" s="7">
+        <v>37448</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="7">
-        <v>67</v>
-      </c>
-      <c r="N9" s="7">
-        <v>32991</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1413,49 +1320,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="D10" s="7">
-        <v>94555</v>
+        <v>132800</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>346</v>
+      </c>
+      <c r="I10" s="7">
+        <v>169181</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="7">
-        <v>236</v>
-      </c>
-      <c r="I10" s="7">
-        <v>104141</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>553</v>
+      </c>
+      <c r="N10" s="7">
+        <v>301982</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M10" s="7">
-        <v>389</v>
-      </c>
-      <c r="N10" s="7">
-        <v>198696</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1464,10 +1371,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>206</v>
+        <v>254</v>
       </c>
       <c r="D11" s="7">
-        <v>124977</v>
+        <v>160114</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -1479,10 +1386,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>334</v>
+        <v>449</v>
       </c>
       <c r="I11" s="7">
-        <v>147219</v>
+        <v>218746</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -1494,10 +1401,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>540</v>
+        <v>703</v>
       </c>
       <c r="N11" s="7">
-        <v>272196</v>
+        <v>378860</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1511,55 +1418,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D12" s="7">
-        <v>14651</v>
+        <v>6214</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>23</v>
+      </c>
+      <c r="I12" s="7">
+        <v>14220</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="7">
-        <v>53</v>
-      </c>
-      <c r="I12" s="7">
-        <v>28103</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>32</v>
+      </c>
+      <c r="N12" s="7">
+        <v>20434</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M12" s="7">
-        <v>80</v>
-      </c>
-      <c r="N12" s="7">
-        <v>42754</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1568,49 +1475,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>14853</v>
+        <v>5369</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="7">
+        <v>21</v>
+      </c>
+      <c r="I13" s="7">
+        <v>11810</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="7">
-        <v>50</v>
-      </c>
-      <c r="I13" s="7">
-        <v>26757</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>29</v>
+      </c>
+      <c r="N13" s="7">
+        <v>17179</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M13" s="7">
-        <v>70</v>
-      </c>
-      <c r="N13" s="7">
-        <v>41610</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1619,49 +1526,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="D14" s="7">
-        <v>144342</v>
+        <v>123876</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>244</v>
+      </c>
+      <c r="I14" s="7">
+        <v>334226</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="7">
-        <v>346</v>
-      </c>
-      <c r="I14" s="7">
-        <v>188034</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>418</v>
+      </c>
+      <c r="N14" s="7">
+        <v>458103</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M14" s="7">
-        <v>553</v>
-      </c>
-      <c r="N14" s="7">
-        <v>332377</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1670,10 +1577,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>254</v>
+        <v>191</v>
       </c>
       <c r="D15" s="7">
-        <v>173846</v>
+        <v>135459</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -1685,10 +1592,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>449</v>
+        <v>288</v>
       </c>
       <c r="I15" s="7">
-        <v>242895</v>
+        <v>360256</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -1700,10 +1607,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>703</v>
+        <v>479</v>
       </c>
       <c r="N15" s="7">
-        <v>416741</v>
+        <v>495716</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -1717,55 +1624,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D16" s="7">
-        <v>6704</v>
+        <v>11035</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>34</v>
+      </c>
+      <c r="I16" s="7">
+        <v>19394</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H16" s="7">
-        <v>23</v>
-      </c>
-      <c r="I16" s="7">
-        <v>16203</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>52</v>
+      </c>
+      <c r="N16" s="7">
+        <v>30429</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M16" s="7">
-        <v>32</v>
-      </c>
-      <c r="N16" s="7">
-        <v>22906</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1774,49 +1681,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D17" s="7">
-        <v>5808</v>
+        <v>12610</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>54</v>
+      </c>
+      <c r="I17" s="7">
+        <v>29291</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H17" s="7">
-        <v>21</v>
-      </c>
-      <c r="I17" s="7">
-        <v>13031</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>74</v>
+      </c>
+      <c r="N17" s="7">
+        <v>41901</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="M17" s="7">
-        <v>29</v>
-      </c>
-      <c r="N17" s="7">
-        <v>18840</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1825,49 +1732,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>174</v>
+        <v>286</v>
       </c>
       <c r="D18" s="7">
-        <v>133982</v>
+        <v>179595</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>435</v>
+      </c>
+      <c r="I18" s="7">
+        <v>226346</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H18" s="7">
-        <v>244</v>
-      </c>
-      <c r="I18" s="7">
-        <v>251880</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>721</v>
+      </c>
+      <c r="N18" s="7">
+        <v>405941</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="M18" s="7">
-        <v>418</v>
-      </c>
-      <c r="N18" s="7">
-        <v>385863</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1876,10 +1783,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>191</v>
+        <v>324</v>
       </c>
       <c r="D19" s="7">
-        <v>146494</v>
+        <v>203240</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -1891,10 +1798,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>288</v>
+        <v>523</v>
       </c>
       <c r="I19" s="7">
-        <v>281114</v>
+        <v>275031</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -1906,10 +1813,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>479</v>
+        <v>847</v>
       </c>
       <c r="N19" s="7">
-        <v>427609</v>
+        <v>478271</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -1923,55 +1830,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="D20" s="7">
-        <v>11593</v>
+        <v>51212</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="7">
+        <v>177</v>
+      </c>
+      <c r="I20" s="7">
+        <v>85395</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H20" s="7">
-        <v>34</v>
-      </c>
-      <c r="I20" s="7">
-        <v>22731</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>267</v>
+      </c>
+      <c r="N20" s="7">
+        <v>136607</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="M20" s="7">
-        <v>52</v>
-      </c>
-      <c r="N20" s="7">
-        <v>34325</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1980,49 +1887,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D21" s="7">
-        <v>13589</v>
+        <v>49681</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" s="7">
+        <v>191</v>
+      </c>
+      <c r="I21" s="7">
+        <v>91457</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>271</v>
+      </c>
+      <c r="N21" s="7">
+        <v>141138</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H21" s="7">
-        <v>54</v>
-      </c>
-      <c r="I21" s="7">
-        <v>34240</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="M21" s="7">
-        <v>74</v>
-      </c>
-      <c r="N21" s="7">
-        <v>47828</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2031,49 +1938,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>286</v>
+        <v>852</v>
       </c>
       <c r="D22" s="7">
-        <v>193062</v>
+        <v>546003</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1338</v>
+      </c>
+      <c r="I22" s="7">
+        <v>856345</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>2190</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1402348</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H22" s="7">
-        <v>435</v>
-      </c>
-      <c r="I22" s="7">
-        <v>251928</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="M22" s="7">
-        <v>721</v>
-      </c>
-      <c r="N22" s="7">
-        <v>444990</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2082,10 +1989,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>324</v>
+        <v>1022</v>
       </c>
       <c r="D23" s="7">
-        <v>218244</v>
+        <v>646896</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -2097,10 +2004,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>523</v>
+        <v>1706</v>
       </c>
       <c r="I23" s="7">
-        <v>308899</v>
+        <v>1033197</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -2112,10 +2019,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>847</v>
+        <v>2728</v>
       </c>
       <c r="N23" s="7">
-        <v>527143</v>
+        <v>1680093</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -2128,222 +2035,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>90</v>
-      </c>
-      <c r="D24" s="7">
-        <v>53979</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H24" s="7">
-        <v>177</v>
-      </c>
-      <c r="I24" s="7">
-        <v>95050</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="M24" s="7">
-        <v>267</v>
-      </c>
-      <c r="N24" s="7">
-        <v>149030</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>80</v>
-      </c>
-      <c r="D25" s="7">
-        <v>53370</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H25" s="7">
-        <v>191</v>
-      </c>
-      <c r="I25" s="7">
-        <v>102787</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="M25" s="7">
-        <v>271</v>
-      </c>
-      <c r="N25" s="7">
-        <v>156157</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>852</v>
-      </c>
-      <c r="D26" s="7">
-        <v>585877</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1338</v>
-      </c>
-      <c r="I26" s="7">
-        <v>827711</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="M26" s="7">
-        <v>2190</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1413588</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1022</v>
-      </c>
-      <c r="D27" s="7">
-        <v>693226</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>1706</v>
-      </c>
-      <c r="I27" s="7">
-        <v>1025548</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>2728</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1718774</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>179</v>
+      <c r="A24" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
